--- a/data/285_D_label_case.xlsx
+++ b/data/285_D_label_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,6 +1006,558 @@
         <v>0.002426239522600974</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.002435905208104154</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1.0185</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.002428189667600264</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1.0369</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.002431030301376996</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1.0554</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.002476783187694187</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1.0738</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.002533851666489165</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1.0922</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.002575881272254546</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1.1105</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.002622223233582157</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1.1289</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.002714727093503574</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1.1472</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.002830169192056774</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1.1654</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.002927923170394317</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1.1835</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.003033779551167455</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1.2017</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.003192487446780011</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1.2198</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.00336801570984411</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1.2377</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.003502318377235429</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1.2555</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.003644243413752162</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1.2734</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.003857851287738972</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1.2912</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.004095355222356128</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1.3087</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.004270289493931417</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1.3261</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.00445034613695049</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1.3436</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.004718977518200013</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.005026558340682296</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1.378</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.005247658128210285</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1.395</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.005481428269333321</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1.412</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.005826411849857337</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1.429</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.006227505460900994</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1.4454</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.0065017550025549</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1.4619</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.006792125791770448</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1.4783</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.007235921136518118</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.4948</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.007742789971348621</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1.5106</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.008080533386651994</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1.5265</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.008433760296131099</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1.5423</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.008969865757256027</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1.5581</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.009583441192762528</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1.5733</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.01000424289983398</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1.5885</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.0104555854807548</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1.6037</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.01116230607782434</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1.6189</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.01200726737894479</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1.6334</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.01256868111260127</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1.6479</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.01316972029159376</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1.6624</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.01411603698103608</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1.6769</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.0152149707605862</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1.6906</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.01597263892877893</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1.7044</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.01679536883041037</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1.7182</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.01807584913045479</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1.7319</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.01962162520865199</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.02078061257727851</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.0220583255475562</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.0240091242559713</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.02641092292167566</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1.7963</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.028377947848788</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1.8086</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.03051342730350587</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1.8209</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.03376891321186609</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1.8331</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.03793828256394358</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1.8447</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.04147148500044469</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1.8562</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.04530756040801547</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1.8677</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.05109788230269131</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1.8792</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.05842192791637744</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.06466913799855725</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1.9008</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.0712094153913484</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1.9116</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.08086099711230096</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1.9224</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.09272211027222245</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1.9324</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.1015170627976005</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1.9425</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.1078882943357807</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1.9525</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.1172371281595401</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1.9626</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.1237389132780258</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1.972</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.1262966035721945</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1.9813</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.1257121566358415</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1.9907</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.1697226284655507</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.1949276326580189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
